--- a/Dispatcher/ExcelTemplate.xlsx
+++ b/Dispatcher/ExcelTemplate.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MihaiTatu\Documents\UiPath\ReFetchData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CodeHub\UiPath\ReFrameWork\Dispatcher\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,10 +32,10 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Extra</t>
+    <t>Age</t>
   </si>
   <si>
-    <t>Age</t>
+    <t>Status</t>
   </si>
 </sst>
 </file>
@@ -399,7 +399,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -412,10 +412,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
